--- a/adult_edu/src/main/resources/static/template/course.xlsx
+++ b/adult_edu/src/main/resources/static/template/course.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="14">
   <si>
     <t>计算机应用</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -52,23 +52,22 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>语文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>会计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>论文答辩</t>
+  </si>
+  <si>
     <t>数学</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>语文</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>英语</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>会计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>美学</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -76,7 +75,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -90,6 +89,12 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -112,9 +117,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -422,7 +428,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -439,12 +445,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
-        <v>9</v>
+      <c r="B2" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
@@ -452,7 +458,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
@@ -460,7 +466,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
@@ -476,7 +482,7 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
@@ -484,7 +490,7 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/adult_edu/src/main/resources/static/template/course.xlsx
+++ b/adult_edu/src/main/resources/static/template/course.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>计算机应用</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -428,7 +428,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
